--- a/data/long_razon/P29-Urba-long_razon.xlsx
+++ b/data/long_razon/P29-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-26,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-14,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-43,02; -6,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 73,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 33,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-30,31; 6,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,37; 4,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 23,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-29,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-47,24; -7,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,44; 18,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,92; 14,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 37,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,74; -4,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 20,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 137,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-44,67; 45,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 44,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 69,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,36; 59,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,79; 39,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,9; -5,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 30,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 14,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 14,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,33; -0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 15,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P29-Urba-long_razon.xlsx
+++ b/data/long_razon/P29-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.2909411418260482</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3885470242773805</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.165487476657443</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.05725888587304814</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1071501821503068</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.1140521875966788</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.1274760595025004</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.09302954549968176</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.1396900715474751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.4469281002404207</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.1123899931371659</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4104898054225714</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1528817715498177</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.2779902494476358</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.3146947188771661</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2796516222471605</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.06788472350649459</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.3130768894979736</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.09413836751237704</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.7475926186984911</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.1039063571835531</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.3058713749459209</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.0819330719075182</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.1020337306962816</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.02399240464411233</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.2980032517941269</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.03872872937135138</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.3090637438668503</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.03428177839582157</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1280883555623524</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1220258667647211</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.1282989939794111</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1784081029791549</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.2218621030698965</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.04567331478690886</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.1548599090733493</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4733270031034812</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2264377394553807</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3627297030560763</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.3127090336677266</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.06746112823951081</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3597861736214864</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3509422407025961</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.09646477189524771</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.2955757007795556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.09109420583925686</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.209465734081326</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.2620796889258757</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.113700586017846</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.3607156532308947</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.03511893398187948</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>-0.07446475446899488</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.218788992650653</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.06600028454572586</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.2643338640338199</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.04151207022871223</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.1630478895168064</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.08409161947488292</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.1595786403111253</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.2454086227703071</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.08932302075567167</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.0548486369723343</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.001277111422660513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3145972509547998</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.4250506493712289</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5794737259460818</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4327605240605742</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2364502044428959</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.2316332629200617</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.2425380600062748</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2285282059760506</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.4040891544812806</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.235598037054003</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.5610221951208998</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.6146539829911898</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.483323065939914</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.7057909992607038</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.124295380546319</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.5535955106760525</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.4608331777512345</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.4858215242741297</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.2420907759068656</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.1302475240245637</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1512809316502618</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.03087104860755064</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.01441451716920896</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1062563798005953</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.1424631272184191</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.06803413202683972</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.1287382538380978</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3775677214622228</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.04726833755254245</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3131594456081277</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1576656730946197</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.1158361055168778</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2494524610350702</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.2329445987246086</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.03891924667210853</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.2456270378875235</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.1009923618334218</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.3094813237451784</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.0534560900119485</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.1286654883340686</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.1502692335738476</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.04209691297445637</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.0411209260543812</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.1746318495004296</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.004219392408136675</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
